--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABCD/10/seed1/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-22.19770000000001</v>
+        <v>-22.1153</v>
       </c>
       <c r="B4" t="n">
-        <v>5.6082</v>
+        <v>5.841400000000002</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.28479999999997</v>
+        <v>-20.06129999999997</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.53579999999999</v>
+        <v>-13.23749999999999</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.7945</v>
+        <v>4.842299999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-13.0317</v>
+        <v>-13.6721</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.03930000000001</v>
+        <v>-22.04690000000002</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.094699999999994</v>
+        <v>6.087199999999995</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>8.967300000000002</v>
+        <v>8.820600000000002</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.590199999999983</v>
+        <v>9.351299999999988</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.160899999999995</v>
+        <v>-7.430999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.8107</v>
+        <v>-21.8641</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.05239999999997</v>
+        <v>-21.15149999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -855,7 +855,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.76229999999999</v>
+        <v>-12.24219999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.875500000000001</v>
+        <v>4.8505</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.38040000000001</v>
+        <v>-21.3186</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.972000000000001</v>
+        <v>-7.853900000000005</v>
       </c>
     </row>
     <row r="35">
@@ -984,18 +984,18 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.203799999999996</v>
+        <v>-8.323299999999994</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-22.0398</v>
+        <v>-21.86719999999998</v>
       </c>
       <c r="B40" t="n">
-        <v>5.781700000000003</v>
+        <v>6.077400000000003</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.01710000000001</v>
+        <v>-12.1875</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.156000000000001</v>
+        <v>8.935999999999996</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.0061</v>
+        <v>-12.885</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.477900000000002</v>
+        <v>5.315400000000002</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.423800000000001</v>
+        <v>5.527100000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.17279999999999</v>
+        <v>-22.1361</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.0484</v>
+        <v>-22.28370000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1292,7 +1292,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-8.080499999999995</v>
+        <v>-8.150999999999996</v>
       </c>
     </row>
     <row r="62">
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.8131</v>
+        <v>4.837399999999999</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,13 +1328,13 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.4651</v>
+        <v>5.513199999999999</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.083699999999991</v>
+        <v>-7.18939999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.4742</v>
+        <v>-21.45729999999999</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.786799999999994</v>
+        <v>5.690999999999997</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.153600000000003</v>
+        <v>-7.948200000000003</v>
       </c>
     </row>
     <row r="79">
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>4.859200000000004</v>
+        <v>4.855700000000004</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.674699999999998</v>
+        <v>-8.600999999999996</v>
       </c>
     </row>
     <row r="84">
@@ -1678,10 +1678,10 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.923299999999996</v>
+        <v>4.934699999999996</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.69639999999999</v>
+        <v>-13.3201</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.46170000000001</v>
+        <v>-12.4735</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1726,7 +1726,7 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.406800000000001</v>
+        <v>-6.344900000000001</v>
       </c>
     </row>
     <row r="93">
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>4.696599999999997</v>
+        <v>4.677599999999995</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.675399999999995</v>
+        <v>-7.602399999999998</v>
       </c>
     </row>
     <row r="99">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.09650000000002</v>
+        <v>-22.07040000000002</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
